--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3413.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3413.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.357499727576551</v>
+        <v>1.608888149261475</v>
       </c>
       <c r="B1">
-        <v>1.921242134091593</v>
+        <v>4.235321044921875</v>
       </c>
       <c r="C1">
-        <v>3.568404990252851</v>
+        <v>3.624852657318115</v>
       </c>
       <c r="D1">
-        <v>5.150526386491431</v>
+        <v>1.805981636047363</v>
       </c>
       <c r="E1">
-        <v>1.052707685057644</v>
+        <v>1.04540228843689</v>
       </c>
     </row>
   </sheetData>
